--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\диплом 2\Social-engineering-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79C702F-88FD-449D-B284-CF429FF041A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6E69F-64E5-486B-AF89-5BC31B7E3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E930F306-0A6E-47C1-B9A2-2A713BEF6E63}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Сценарій атаки</t>
   </si>
@@ -51,290 +51,293 @@
     <t>Оцінка впливу</t>
   </si>
   <si>
-    <t>Фішинг (Phishing) через email або website</t>
-  </si>
-  <si>
-    <t>Отримання несподіваних електронних листів або відвідування веб-сайтів, які імітують офіційні ресурси критичної інфраструктури (наприклад, "термінове оновлення конфігурації SCADA від постачальника" з посиланням на фальшивий сайт для введення облікових даних; ознаки включають граматичні помилки, невідому адресу відправника, терміновість дій або вимогу надати паролі/конфіденційну інформацію про системи)</t>
-  </si>
-  <si>
-    <t>Підозрілі email-транзакції з метаданими (IP-адреси відправника, час відправки/отримання, вкладення чи посилання), журнали сервера з записами про прийом/відправку, а також журнали браузера з історією відвідувань фальшивих URL.</t>
-  </si>
-  <si>
-    <t>Email Server (для фіксації транзакцій) або Веб сервер (для запитів до фальшивих сайтів)</t>
-  </si>
-  <si>
-    <t>Компрометація облікових даних може призвести до несанкціонованого доступу до SCADA-систем, зміни параметрів керування (наприклад, в IED або PLC), що спричинить збої в енергопостачанні, транспорті чи інших критичних секторах, потенційно викликаючи аварії або перерви в роботі.</t>
-  </si>
-  <si>
     <t>Vishing (голосовий фішинг)</t>
   </si>
   <si>
-    <t>Телефонні дзвінки від осіб, які представляються як технічна підтримка або керівництво ОКІ (наприклад, "проблема з RTU, надайте доступ для діагностики"; ознаки включають несподівані дзвінки поза робочим часом, тиск на швидкі дії, запит конфіденційної інформації як паролі чи конфігураційні деталі)</t>
-  </si>
-  <si>
     <t>Не фіксується безпосередньо в цифровому форматі; опосередковано через подальші наслідки, як незвичайні логи входу або зміни конфігурації після дзвінка. Альтернативно: зафіксувати через записи телефонних розмов (якщо система VoIP), свідчення операторів або аудит журналів подій.</t>
   </si>
   <si>
-    <t>Domain Controller (для фіксації наслідків, як Logon Events після атаки)</t>
-  </si>
-  <si>
     <t>Отримання доступу може дозволити зловмиснику маніпулювати HMI або PLC, спричиняючи неправильне керування обладнанням, як відключення систем захисту в електромережах.</t>
   </si>
   <si>
     <t>Smishing (SMS-фішинг)</t>
   </si>
   <si>
-    <t>MS-повідомлення з терміновими вимогами (наприклад, "критична уразливість в SCADA, оновіть за посиланням"; ознаки: невідомий номер, фальшиві посилання, вимога ввести дані або завантажити "оновлення", часто з елементами паніки)</t>
-  </si>
-  <si>
     <t>Журнали SMS-транзакцій на мобільних пристроях (якщо інтегровані з системою), або подальші браузерні дії (історія відвідувань, журнали подій з кліками на посилання)</t>
   </si>
   <si>
-    <t>Робочі станції (для фіксації браузерної історії) або Email Server (якщо SMS перенаправляється).</t>
-  </si>
-  <si>
-    <t>Клік на шкідливе посилання може встановити malware, що порушить комунікацію між MTU та польовими пристроями, призводячи до втрати контролю над критичними процесами</t>
-  </si>
-  <si>
-    <t>Spear-phishing / Whaling (цільовий фішинг на ключових осіб)</t>
-  </si>
-  <si>
-    <t>Персоналізовані повідомлення, адаптовані під конкретну особу в ОКІ (наприклад, для головного інженера: "проблема з конкретним IED в вашій мережі, надайте логи"; ознаки: використання особистих деталей, як ім'я проекту чи недавні події, фальшиві домени, що імітують корпоративні)</t>
-  </si>
-  <si>
     <t>Підозрілі журнали комунікації з метаданими (адреси, час), журнали подій з незвичайними запитами або вкладеннями, Security Events з спробами доступу</t>
   </si>
   <si>
-    <t>Email Server (для транзакцій) або Domain Controller (для аутентифікації)</t>
-  </si>
-  <si>
-    <t>Компрометація високорівневих облікових записів може дозволити зміну конфігурації Historian або IED, спричиняючи фальсифікацію даних моніторингу та аварійні ситуації.</t>
-  </si>
-  <si>
     <t>Angler Phishing (фішинг через соціальні мережі)</t>
   </si>
   <si>
-    <t>Повідомлення в соціальних мережах від "колег" або "постачальників" з посиланнями (наприклад, "подивіться на цю проблему з PLC" з шкідливим файлом; ознаки: профілі без історії, невідповідність стилю спілкування, терміновість)</t>
-  </si>
-  <si>
     <t>Історія браузера з доступом до зовнішніх посилань, журнали подій з виконанням файлів, Communication logs з аномальними взаємодіями</t>
   </si>
   <si>
-    <t>Робочі станції (для браузерної історії) або Веб сервер (для запитів).</t>
-  </si>
-  <si>
-    <t>Встановлення шкідливого ПЗ може скомпрометувати Engineering Workstation, дозволяючи маніпуляцію кодом програм в PLC, що загрожує стабільності інфраструктури.</t>
-  </si>
-  <si>
-    <t>Grooming (поступове будування довіри)</t>
-  </si>
-  <si>
-    <t>Тривалі комунікації з поступовими проханнями про дедалі конфіденційнішу інформацію (наприклад, спочатку загальні запитання про SCADA, потім про паролі; ознаки: регулярні контакти без видимої мети, ескалація запитів, використання соціальних мереж чи email)</t>
-  </si>
-  <si>
-    <t>Журнали комунікації з повторюваними взаємодіями, email-транзакції з метаданими, журнали подій з поступовими змінами доступу.</t>
-  </si>
-  <si>
-    <t>Email Server (для транзакцій) або OPC Server (для комунікаційних логів)</t>
-  </si>
-  <si>
-    <t>Витік даних про конфігурацію може призвести до цільових атак на MTU, порушуючи моніторинг і керування критичними процесами.</t>
-  </si>
-  <si>
     <t>Pretexting (створення фальшивого сценарію)</t>
   </si>
   <si>
-    <t>Запити інформації під вигаданим, але правдоподібним приводом (наприклад, "аудит безпеки від регулятора, надайте доступ до HMI"; ознаки: відсутність верифікації, нестандартні канали зв'язку, тиск на конфіденційність)</t>
-  </si>
-  <si>
-    <t>Журнали подій з незвичайними запитами, зміни конфігурації, Issued commands з нетиповими діями.</t>
-  </si>
-  <si>
-    <t>HMI (для команд) або Domain Controller (для аутентифікації)</t>
-  </si>
-  <si>
-    <t>Надання доступу може дозволити зміну налаштувань IED, спричиняючи аномалії в мережі, як перевантаження чи відключення.</t>
-  </si>
-  <si>
-    <t>Profile Cloning (клонування профілю)</t>
-  </si>
-  <si>
-    <t>Повідомлення від профілів, що імітують реальних колег чи партнерів в ОКІ (наприклад, клон профілю інженера з проханням "поділитися конфігурацією"; ознаки: дублікат профілів, відмінності в деталях, незвичайні запити)</t>
-  </si>
-  <si>
-    <t>Журнали аутентифікації з дубльованими обліковими записами, незвичайні входи в Logon Events, email-транзакції з фальшивими адресами.</t>
-  </si>
-  <si>
-    <t>Domain Controller (для аутентифікації) або Email Server (для повідомлень)</t>
-  </si>
-  <si>
-    <t>Імперсонація може призвести до виконання шкідливих команд на HMI, порушуючи технологічний процес і викликаючи збої.</t>
-  </si>
-  <si>
-    <t>Face-to-Face Interaction (особиста взаємодія)</t>
-  </si>
-  <si>
-    <t>Фізична маніпуляція для отримання інформації (наприклад, розмова з оператором під виглядом інспектора для витягу паролів; ознаки: несподівані візити, відсутність документів, запит чутливих даних).</t>
-  </si>
-  <si>
-    <t>Не фіксується безпосередньо в цифровому форматі; альтернатива: зафіксувати через камери спостереження, журнали доступу до приміщень або свідчення персоналу; якщо ніяк – то тільки через наслідки, як незвичайні логи після взаємодії.</t>
-  </si>
-  <si>
     <t>Робочі станції (для фіксації наслідків, як Program execution) або HMI (для Issued commands).</t>
   </si>
   <si>
-    <t>Витік паролів може скомпрометувати доступ до PLC, спричиняючи збої в керуванні обладнанням критичної інфраструктури.</t>
-  </si>
-  <si>
     <t>Shoulder Surfing (нагляд через плече)</t>
   </si>
   <si>
-    <t>Фізичне спостереження за введенням даних оператором (наприклад, паролів на екрані HMI під час роботи; ознаки: підозріла присутність сторонніх, незвичайна поведінка в захищених зонах).</t>
-  </si>
-  <si>
     <t>Не фіксується цифрово безпосередньо; альтернатива: через камери спостереження або фізичний аудит; якщо ніяк – то тільки через подальші незвичайні входи в логи.</t>
   </si>
   <si>
-    <t>HMI (для фіксації наслідків, як Issued commands) або Робочі станції (для Account usage).</t>
-  </si>
-  <si>
-    <t>Використання вкрадених даних може призвести до несанкціонованих змін в системі, загрожуючи безпеці та стабільності критичних процесів.</t>
-  </si>
-  <si>
     <t>Quid Pro Quo (обмін послугами)</t>
   </si>
   <si>
-    <t>Пропозиція допомоги в обмін на інформацію (наприклад, "допоможу з проблемою в SCADA, якщо надасте логи"; ознаки: несподівані пропозиції, відсутність верифікації, ескалація до конфіденційних даних).</t>
-  </si>
-  <si>
     <t>Журнали подій з незвичайними змінами облікових записів, email-транзакції або комунікаційні логи з зовнішніми взаємодіями.</t>
   </si>
   <si>
-    <t>Domain Controller (для Password Change Events) або Engineering Workstation (для Account usage).</t>
-  </si>
-  <si>
-    <t>Надання доступу може дозволити встановлення шкідливого коду, порушуючи стабільність SCADA і викликаючи перерви в роботі.</t>
-  </si>
-  <si>
     <t>Dumpster Diving (пошук у смітті)</t>
   </si>
   <si>
-    <t>Фізичний пошук викинутих документів чи носіїв з даними ОКІ (наприклад, роздруковані конфігурації PLC; ознаки: порушення в зонах утилізації, зникнення матеріалів).</t>
-  </si>
-  <si>
-    <t>Не фіксується цифрово безпосередньо; альтернатива: через фізичний аудит сміття або камери; якщо ніяк – то тільки через наслідки, як атаки на основі вкрадених даних.</t>
-  </si>
-  <si>
-    <t>Сервер баз даних (для перевірки витоків через Trace Files) або Historian (для DMBS logs).</t>
-  </si>
-  <si>
-    <t>Використання даних може призвести до цільових атак, компрометуючи історичні дані процесів і загрожуючи моніторингу.</t>
-  </si>
-  <si>
     <t>Piggybacking / Tailgating (проникнення за кимось)</t>
   </si>
   <si>
-    <t>Несанкціоноване проходження в захищені зони ОКІ (наприклад, за оператором до серверної; ознаки: порушення протоколів доступу, підозріла присутність).</t>
-  </si>
-  <si>
-    <t>Не фіксується цифрово безпосередньо; альтернатива: через системи контролю доступу (картки, камери); якщо ніяк – то тільки через наслідки в логах.</t>
-  </si>
-  <si>
-    <t>Domain Controller (для Audit Events) або Firewall/IDS/IPS (для мережевого трафіку).</t>
-  </si>
-  <si>
-    <t>Фізичний доступ може дозволити маніпуляцію пристроями, як MTU, загрожуючи інфраструктурі.</t>
-  </si>
-  <si>
-    <t>File Masquerade (маскування файлів)</t>
-  </si>
-  <si>
-    <t>Файли, замасковані під легітимні (наприклад, "оновлення для RTU" з malware; ознаки: несподівані файли, невідповідність хешів, аномальна поведінка після відкриття).</t>
-  </si>
-  <si>
-    <t>Журнали виконання програм з незвичайними процесами, Program/File execution з деталями запуску.</t>
-  </si>
-  <si>
-    <t>Engineering Workstation (для Program/File execution) або OPC Server (для Field device logs)</t>
-  </si>
-  <si>
-    <t>Виконання шкідливого файлу може змінити I/O data, спричиняючи аварійні ситуації в критичних системах.</t>
-  </si>
-  <si>
     <t>Baiting (приманка)</t>
   </si>
   <si>
-    <t>Залишені інфіковані пристрої в зонах ОКІ (наприклад, USB з "конфіденційними даними"; ознаки: знайдені носії без власника, підозрілий вміст).</t>
-  </si>
-  <si>
     <t>Логи підключених пристроїв з незвичайними USB, Attached device logs з деталями підключення</t>
   </si>
   <si>
-    <t>Робочі станції (для Attached device logs).</t>
-  </si>
-  <si>
-    <t>Інфекція може поширитися на мережу, порушуючи маршрутизацію даних і стабільність SCADA.</t>
-  </si>
-  <si>
-    <t>Reverse Social Engineering (зворотна інженерія)</t>
-  </si>
-  <si>
-    <t>Жертва сама контактує зловмисника через фальшиву рекламу (ознаки: ініціація контакту з невідомими, ескалація до надання даних).</t>
-  </si>
-  <si>
-    <t>Журнали комунікації з зовнішніми запитами, журнали браузера з відвідуваннями фальшивих сайтів.</t>
-  </si>
-  <si>
-    <t>Веб сервер (для журналів подій) або Email Server (для транзакцій).</t>
-  </si>
-  <si>
-    <t>Надання доступу може скомпрометувати сервери, призводячи до втрати даних і збоїв в моніторингу.</t>
-  </si>
-  <si>
     <t>Scareware / Pop-up атаки</t>
   </si>
   <si>
-    <t>Фальшиві спливаючі вікна з попередженнями (наприклад, "критична помилка в IED, клікніть для фіксу"; ознаки: несподівані поп-апи, вимога дій, імітація системних повідомлень).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Журнали браузера з історією сеансів, Session Data з деталями активності, журнали подій з аномальними запитами.
+    <t>Журнали браузера з підозрілими URL, мережевий трафік в Log Data, IP-адреси з аномаліями</t>
+  </si>
+  <si>
+    <t>Журнали браузера з історією відвідувань, DHCP logs з підозрілими IP-призначеннями, журнали маршрутизації з аномальними шляхами.</t>
+  </si>
+  <si>
+    <t>Маршрутизатори (для таблиць маршрутизації) або Сервери застосунків (для DHCP)</t>
+  </si>
+  <si>
+    <t>Phishing через email або website</t>
+  </si>
+  <si>
+    <t>Підозрілі email-транзакції з метаданими (IP-адреси відправника, час відправки/отримання, вкладення чи посилання), журнали сервера з записами про прийом/відправку, а також журнали браузера з історією відвідувань фальшивих URL</t>
+  </si>
+  <si>
+    <t>Отримання несподіваних електронних листів або відвідування веб-сайтів, які імітують офіційні ресурси критичної інфраструктури; ознаки включають граматичні помилки, невідому адресу відправника, терміновість дій або вимогу надати паролі/конфіденційну інформацію про системи</t>
+  </si>
+  <si>
+    <t>Компрометація облікових даних може призвести до несанкціонованого доступу до SCADA-систем, зміни параметрів керування (наприклад, в IED або PLC), що потенційно спричинить аварії або перерви в роботі</t>
+  </si>
+  <si>
+    <t>Телефонні дзвінки від осіб, які представляються як технічна підтримка або керівництво ОКІ; ознаки включають несподівані дзвінки поза робочим часом, тиск на швидкі дії, запит конфіденційної інформації як паролі чи конфігураційні деталі)</t>
+  </si>
+  <si>
+    <t>Domain Controller (логіни після дзвінка, аномальна активність), VoIP/Call Server (якщо є; аудіо/дзвінки)</t>
+  </si>
+  <si>
+    <t>SMS-повідомлення з терміновими вимогами; ознаки: невідомий номер, фальшиві посилання, вимога ввести дані або завантажити "оновлення", часто з елементами паніки</t>
+  </si>
+  <si>
+    <t>Клік на шкідливе посилання може встановити ШПЗ, що порушить комунікацію між MTU та польовими пристроями, призводячи до втрати контролю над критичними процесами</t>
+  </si>
+  <si>
+    <t>Spear-phishing / Whaling</t>
+  </si>
+  <si>
+    <t>Персоналізовані повідомлення, адаптовані під конкретну особу в ОКІ; ознаки: використання особистих деталей, як ім'я проекту чи недавні події, фальшиві домени, що імітують корпоративні</t>
+  </si>
+  <si>
+    <t>Компрометація високорівневих облікових записів може дозволити зміну конфігурації Historian або IED, спричиняючи фальсифікацію даних моніторингу та аварійні ситуації</t>
+  </si>
+  <si>
+    <t>Повідомлення в соціальних мережах від "колег" або "постачальників" з посиланнями; ознаки: профілі без історії, невідповідність стилю спілкування, терміновість</t>
+  </si>
+  <si>
+    <t>Встановлення шкідливого ПЗ може скомпрометувати Engineering Workstation, дозволяючи маніпуляцію кодом програм в PLC, що загрожує стабільності інфраструктури</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Тривалі комунікації з поступовими проханнями про дедалі конфіденційнішу інформацію (наприклад, спочатку загальні запитання про SCADA, потім про паролі); ознаки: регулярні контакти без видимої мети, ескалація запитів, використання соціальних мереж чи email</t>
+  </si>
+  <si>
+    <t>Email Server(довгі ланцюжки листування), OPC Server / SCADA logs(якщо зловмисник отримав доступ до оператора)</t>
+  </si>
+  <si>
+    <t>Витік даних про конфігурацію може призвести до цільових атак на MTU, порушуючи моніторинг і керування критичними процесами</t>
+  </si>
+  <si>
+    <t>Запити інформації під вигаданим, але правдоподібним приводом; ознаки: відсутність верифікації, нестандартні канали зв'язку, тиск на конфіденційність</t>
+  </si>
+  <si>
+    <t>Журнали подій з незвичайними запитами, зміни конфігурації, Issued commands з нетиповими діями</t>
+  </si>
+  <si>
+    <t>Журнали комунікації з повторюваними взаємодіями, email-транзакції з метаданими, журнали подій з поступовими змінами доступу</t>
+  </si>
+  <si>
+    <t>HMI (для команд) або Domain Controller (спроби входу під виглядом “аудиторів/провайдерів”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile Cloning </t>
+  </si>
+  <si>
+    <t>Повідомлення від профілів, що імітують реальних колег чи партнерів; ознаки: дублікат профілів, відмінності в деталях, незвичайні запити</t>
+  </si>
+  <si>
+    <t>Domain Controller (логіни з клонованими обліковками) або Email Server (IMAP/SMTP-авторизація)</t>
+  </si>
+  <si>
+    <t>Імперсонація може призвести до виконання шкідливих команд на HMI, порушуючи технологічний процес і викликаючи збої</t>
+  </si>
+  <si>
+    <t>Face-to-Face Interaction</t>
+  </si>
+  <si>
+    <t>Надання доступу може дозволити зміну налаштувань IED, спричиняючи аномалії в мережі, як перевантаження чи відключення</t>
+  </si>
+  <si>
+    <t>Фізична маніпуляція для отримання інформації; ознаки: несподівані візити, відсутність документів, запит чутливих даних</t>
+  </si>
+  <si>
+    <t>Не фіксується безпосередньо в цифровому форматі; альтернатива: зафіксувати через камери спостереження, журнали доступу до приміщень або свідчення персоналу; якщо ніяк – то тільки через наслідки, як незвичайні логи після взаємодії</t>
+  </si>
+  <si>
+    <t>Журнали аутентифікації з дубльованими обліковими записами, незвичайні входи в Logon Events, email-транзакції з фальшивими адресами</t>
+  </si>
+  <si>
+    <t>Витік паролів може скомпрометувати доступ до PLC, спричиняючи збої в керуванні обладнанням критичної інфраструктури</t>
+  </si>
+  <si>
+    <t>Фізичне спостереження за введенням даних оператором (наприклад, паролів на екрані HMI під час роботи); ознаки: підозріла присутність сторонніх, незвичайна поведінка в захищених зонах</t>
+  </si>
+  <si>
+    <t>Використання вкрадених даних може призвести до несанкціонованих змін в системі, загрожуючи безпеці та стабільності критичних процесів</t>
+  </si>
+  <si>
+    <t>Domain Controller (створення/зміни облікових записів) або Engineering Workstation (зміни конфігурацій PLC/RTU)</t>
+  </si>
+  <si>
+    <t>Пропозиція допомоги в обмін на інформацію; ознаки: несподівані пропозиції, відсутність верифікації, ескалація до конфіденційних даних</t>
+  </si>
+  <si>
+    <t>Надання доступу може дозволити встановлення шкідливого коду, порушуючи стабільність SCADA і викликаючи перерви в роботі</t>
+  </si>
+  <si>
+    <t>Фізичний пошук викинутих документів чи носіїв з даними; ознаки: порушення в зонах утилізації, зникнення матеріалів</t>
+  </si>
+  <si>
+    <t>Використання даних може призвести до цільових атак, компрометуючи історичні дані процесів і загрожуючи моніторингу</t>
+  </si>
+  <si>
+    <t>Несанкціоноване проходження в захищені зони ОКІ; ознаки: порушення протоколів доступу, підозріла присутність</t>
+  </si>
+  <si>
+    <t>Domain Controller (для Audit Events) або Firewall/IDS/IPS (для мережевого трафіку)</t>
+  </si>
+  <si>
+    <t>Не фіксується цифрово безпосередньо; альтернатива: через фізичний аудит сміття або камери; якщо ніяк – то тільки через наслідки, як атаки на основі вкрадених даних</t>
+  </si>
+  <si>
+    <t>Не фіксується цифрово безпосередньо; альтернатива: через системи контролю доступу (картки, камери); якщо ніяк – то тільки через наслідки в логах</t>
+  </si>
+  <si>
+    <t>Сервер баз даних (для перевірки витоків через Trace Files) або Historian (для DMBS logs)</t>
+  </si>
+  <si>
+    <t>Фізичний доступ може дозволити маніпуляцію пристроями, як MTU, загрожуючи інфраструктурі</t>
+  </si>
+  <si>
+    <t>File Masquerade</t>
+  </si>
+  <si>
+    <t>Файли, замасковані під легітимні (наприклад, "оновлення для RTU" з malware); ознаки: несподівані файли, невідповідність хешів, аномальна поведінка після відкриття</t>
+  </si>
+  <si>
+    <t>Залишені інфіковані пристрої в зонах ОКІ (наприклад, USB з "конфіденційними даними"); ознаки: знайдені носії без власника, підозрілий вміст</t>
+  </si>
+  <si>
+    <t>Журнали виконання програм з незвичайними процесами, Program/File execution з деталями запуску</t>
+  </si>
+  <si>
+    <t>Виконання шкідливого файлу може змінити I/O data, спричиняючи аварійні ситуації в критичних системах</t>
+  </si>
+  <si>
+    <t>Інфекція може поширитися на мережу, порушуючи маршрутизацію даних і стабільність SCADA</t>
+  </si>
+  <si>
+    <t>Reverse Social Engineering</t>
+  </si>
+  <si>
+    <t>Жертва сама контактує зловмисника через фальшиву рекламу; ознаки: ініціація контакту з невідомими, ескалація до надання даних</t>
+  </si>
+  <si>
+    <t>Журнали комунікації з зовнішніми запитами, журнали браузера з відвідуваннями фальшивих сайтів</t>
+  </si>
+  <si>
+    <t>Web Server (для журналів подій), Email Server (листування, у яке “завербували” жертву), Engineering Workstation</t>
+  </si>
+  <si>
+    <t>Надання доступу може скомпрометувати сервери, призводячи до втрати даних і збоїв в моніторингу</t>
+  </si>
+  <si>
+    <t>Фальшиві спливаючі вікна з попередженнями; ознаки: несподівані поп-апи, вимога дій, імітація системних повідомлень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Журнали браузера з історією сеансів, Session Data з деталями активності, журнали подій з аномальними запитами
 </t>
   </si>
   <si>
-    <t>Робочі станції (для Browser usage) або Веб сервер (для Session Data).</t>
-  </si>
-  <si>
-    <t>Встановлення malware може порушити моніторинг, загрожуючи цілісності процесів у критичній інфраструктурі.</t>
-  </si>
-  <si>
-    <t>Water-Holing (зараження сайтів, які відвідують жертви)</t>
-  </si>
-  <si>
-    <t>Інфекція через сайти, часто відвідувані персоналом ОКІ (наприклад, форуми постачальників SCADA з malware; ознаки: аномальна поведінка сайту, несподівані завантаження, зміни в трафіку).</t>
-  </si>
-  <si>
-    <t>Журнали браузера з підозрілими URL, мережевий трафік в Log Data, IP-адреси з аномаліями</t>
-  </si>
-  <si>
-    <t>Firewall/IDS/IPS (для Log Data) або Маршрутизатори (для журналів подій).</t>
-  </si>
-  <si>
-    <t>Компрометація може дозволити перехоплення даних, спричиняючи збої в критичних секторах, як енергетика чи транспорт.</t>
-  </si>
-  <si>
-    <t>Pharming (перенаправлення сайтів)</t>
-  </si>
-  <si>
-    <t>Автоматичне перенаправлення на фальшиві сайти під час спроби доступу до легітимних ресурсів ОКІ (наприклад, панель керування SCADA перенаправляється на клон; ознаки: несподівана зміна URL, помилки сертифікатів, вимога повторного введення даних).</t>
-  </si>
-  <si>
-    <t>Журнали браузера з історією відвідувань, DHCP logs з підозрілими IP-призначеннями, журнали маршрутизації з аномальними шляхами.</t>
-  </si>
-  <si>
-    <t>Маршрутизатори (для таблиць маршрутизації) або Сервери застосунків (для DHCP)</t>
-  </si>
-  <si>
-    <t>Введення даних на фальшивому сайті може призвести до витоку параметрів конфігурації, порушуючи безпеку мереж і дозволяючи подальші атаки на критичні компоненти.</t>
+    <t>Встановлення ШПЗ може порушити моніторинг, загрожуючи цілісності процесів у критичній інфраструктурі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water-Holing </t>
+  </si>
+  <si>
+    <t>Інфекція через сайти, часто відвідувані персоналом; ознаки: аномальна поведінка сайту, несподівані завантаження, зміни в трафіку</t>
+  </si>
+  <si>
+    <t>Компрометація може дозволити перехоплення даних, спричиняючи збої в критичних секторах</t>
+  </si>
+  <si>
+    <t>Firewall/IDS/IPS (підозрілі домени, експлойти) або маршрутизатори (DNS/маршрутизаційні журнали)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharming </t>
+  </si>
+  <si>
+    <t>Автоматичне перенаправлення на фальшиві сайти під час спроби доступу до легітимних ресурсів; ознаки: несподівана зміна URL, помилки сертифікатів, вимога повторного введення даних</t>
+  </si>
+  <si>
+    <t>Введення даних на фальшивому сайті може призвести до витоку параметрів конфігурації, порушуючи безпеку мереж і дозволяючи подальші атаки на критичні компоненти</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Engineering Workstation (для Program/File execution) або OPC Server (для Field device logs, комунікаційні аномалії), корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Робочі станції (для фіксації браузерної історії) або Email Server (якщо SMS перенаправляється), корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Робочі станції (для браузерної історії), Web Server (для запитів), корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Робочі станції (для Attached device logs), Engineering Workstation, корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Робочі станції (браузер, виконання файлів), Email Server(якщо посилання веде на фішинговий сайт та тригерить захист), Domain Controller (для аутентифікації), Web Server, Engineering Workstation, корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Робочі станції (для Browser usage) або Web Server (для Session Data), можливий корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Email Server (журнали SMTP/IMAP, заголовки листів, IP); Web Server / Proxy / Firewall (HTTP(S) трафік, переходи за шкідливими лінками), корпоративний сервер, робочі станції</t>
+  </si>
+  <si>
+    <t>HMI (для фіксації наслідків, як Issued commands) або робочі станції (для Account usage); Domain Controller (успішні входи “не в той час/з місця”)</t>
   </si>
 </sst>
 </file>
@@ -351,15 +354,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -422,22 +425,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,359 +757,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A515C8D8-E753-4421-9260-41E9F9050A97}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
         <v>92</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\диплом 2\Social-engineering-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6E69F-64E5-486B-AF89-5BC31B7E3660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86488FA-4EFA-4A9F-A6BF-1056F5821C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E930F306-0A6E-47C1-B9A2-2A713BEF6E63}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Vishing (голосовий фішинг)</t>
   </si>
   <si>
-    <t>Не фіксується безпосередньо в цифровому форматі; опосередковано через подальші наслідки, як незвичайні логи входу або зміни конфігурації після дзвінка. Альтернативно: зафіксувати через записи телефонних розмов (якщо система VoIP), свідчення операторів або аудит журналів подій.</t>
-  </si>
-  <si>
     <t>Отримання доступу може дозволити зловмиснику маніпулювати HMI або PLC, спричиняючи неправильне керування обладнанням, як відключення систем захисту в електромережах.</t>
   </si>
   <si>
@@ -338,6 +335,9 @@
   </si>
   <si>
     <t>HMI (для фіксації наслідків, як Issued commands) або робочі станції (для Account usage); Domain Controller (успішні входи “не в той час/з місця”)</t>
+  </si>
+  <si>
+    <t>Не фіксується безпосередньо в цифровому форматі; опосередковано через подальші наслідки, як незвичайні логи входу або зміни конфігурації після дзвінка. Альтернативно: зафіксувати через записи телефонних розмов (якщо система VoIP), свідчення операторів або аудит журналів подій</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
@@ -425,12 +425,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +435,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A515C8D8-E753-4421-9260-41E9F9050A97}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,348 +773,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="69" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\диплом 2\Social-engineering-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86488FA-4EFA-4A9F-A6BF-1056F5821C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF0F3D-B63E-49AF-A243-20F4B2B09186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E930F306-0A6E-47C1-B9A2-2A713BEF6E63}"/>
   </bookViews>
@@ -81,15 +81,9 @@
     <t>Shoulder Surfing (нагляд через плече)</t>
   </si>
   <si>
-    <t>Не фіксується цифрово безпосередньо; альтернатива: через камери спостереження або фізичний аудит; якщо ніяк – то тільки через подальші незвичайні входи в логи.</t>
-  </si>
-  <si>
     <t>Quid Pro Quo (обмін послугами)</t>
   </si>
   <si>
-    <t>Журнали подій з незвичайними змінами облікових записів, email-транзакції або комунікаційні логи з зовнішніми взаємодіями.</t>
-  </si>
-  <si>
     <t>Dumpster Diving (пошук у смітті)</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>Журнали браузера з підозрілими URL, мережевий трафік в Log Data, IP-адреси з аномаліями</t>
   </si>
   <si>
-    <t>Журнали браузера з історією відвідувань, DHCP logs з підозрілими IP-призначеннями, журнали маршрутизації з аномальними шляхами.</t>
-  </si>
-  <si>
     <t>Маршрутизатори (для таблиць маршрутизації) або Сервери застосунків (для DHCP)</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
   </si>
   <si>
     <t>Клік на шкідливе посилання може встановити ШПЗ, що порушить комунікацію між MTU та польовими пристроями, призводячи до втрати контролю над критичними процесами</t>
-  </si>
-  <si>
-    <t>Spear-phishing / Whaling</t>
   </si>
   <si>
     <t>Персоналізовані повідомлення, адаптовані під конкретну особу в ОКІ; ознаки: використання особистих деталей, як ім'я проекту чи недавні події, фальшиві домени, що імітують корпоративні</t>
@@ -325,9 +313,6 @@
     <t>Робочі станції (для Attached device logs), Engineering Workstation, корпоративний сервер</t>
   </si>
   <si>
-    <t>Робочі станції (браузер, виконання файлів), Email Server(якщо посилання веде на фішинговий сайт та тригерить захист), Domain Controller (для аутентифікації), Web Server, Engineering Workstation, корпоративний сервер</t>
-  </si>
-  <si>
     <t>Робочі станції (для Browser usage) або Web Server (для Session Data), можливий корпоративний сервер</t>
   </si>
   <si>
@@ -338,6 +323,21 @@
   </si>
   <si>
     <t>Не фіксується безпосередньо в цифровому форматі; опосередковано через подальші наслідки, як незвичайні логи входу або зміни конфігурації після дзвінка. Альтернативно: зафіксувати через записи телефонних розмов (якщо система VoIP), свідчення операторів або аудит журналів подій</t>
+  </si>
+  <si>
+    <t>Spear-phishing/ Whaling</t>
+  </si>
+  <si>
+    <t>Робочі станції (браузер, виконання файлів), Email Server(якщо посилання веде на фішинговий сайт та тригерить захист), Domain Controller (для аутентифікації), корпоративний сервер</t>
+  </si>
+  <si>
+    <t>Не фіксується цифрово безпосередньо; альтернатива: через камери спостереження або фізичний аудит; якщо ніяк – то тільки через подальші незвичайні входи в логи</t>
+  </si>
+  <si>
+    <t>Журнали подій з незвичайними змінами облікових записів, email-транзакції або комунікаційні логи з зовнішніми взаємодіями</t>
+  </si>
+  <si>
+    <t>Журнали браузера з історією відвідувань, DHCP logs з підозрілими IP-призначеннями, журнали маршрутизації з аномальними шляхами</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A515C8D8-E753-4421-9260-41E9F9050A97}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,19 +791,19 @@
     </row>
     <row r="2" spans="1:5" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -828,33 +828,33 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,33 +862,33 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
@@ -896,225 +896,225 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="69" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
